--- a/R/IDFG boat launch.xlsx
+++ b/R/IDFG boat launch.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watermaster/Desktop/blogwork/LPO.mapping/R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Fishery\Research\Rust\Hoyt\Walleye Map (blog)\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28FC4627-46F1-8B4F-9292-17EB6BCD92C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="IDFG boat launch" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>Latitude</t>
   </si>
@@ -28,51 +27,6 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Farragut Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pringle Park </t>
-  </si>
-  <si>
-    <t>Trestle Creek</t>
-  </si>
-  <si>
-    <t>Hawkins Point</t>
-  </si>
-  <si>
-    <t>City Beach</t>
-  </si>
-  <si>
-    <t>Memorial Field</t>
-  </si>
-  <si>
-    <t>Springy Point</t>
-  </si>
-  <si>
-    <t>Morton Slough</t>
-  </si>
-  <si>
-    <t>Riley Creek</t>
-  </si>
-  <si>
-    <t>Priest River</t>
-  </si>
-  <si>
-    <t>Bayview</t>
-  </si>
-  <si>
-    <t>Garfield Bay</t>
-  </si>
-  <si>
-    <t>Johnson Creek</t>
-  </si>
-  <si>
-    <t>Drift Yard</t>
-  </si>
-  <si>
-    <t>Hope Boat Basin</t>
-  </si>
-  <si>
     <t>Boat_Launch</t>
   </si>
   <si>
@@ -86,13 +40,61 @@
   </si>
   <si>
     <t>click here</t>
+  </si>
+  <si>
+    <t>Farragut Park Boat Launch</t>
+  </si>
+  <si>
+    <t>Pringle Park Boat Launch</t>
+  </si>
+  <si>
+    <t>Trestle Creek Boat Launch</t>
+  </si>
+  <si>
+    <t>Hawkins Point Boat Launch</t>
+  </si>
+  <si>
+    <t>City Beach Boat Launch</t>
+  </si>
+  <si>
+    <t>Memorial Field Boat Launch</t>
+  </si>
+  <si>
+    <t>Springy Point Boat Launch</t>
+  </si>
+  <si>
+    <t>Morton Slough Boat Launch</t>
+  </si>
+  <si>
+    <t>Riley Creek Boat Launch</t>
+  </si>
+  <si>
+    <t>Priest River Boat Launch</t>
+  </si>
+  <si>
+    <t>Bayview Boat Launch</t>
+  </si>
+  <si>
+    <t>Garfield Bay Boat Launch</t>
+  </si>
+  <si>
+    <t>Johnson Creek Boat Launch</t>
+  </si>
+  <si>
+    <t>Drift Yard Boat Launch</t>
+  </si>
+  <si>
+    <t>Hope Boat Basin Boat Launch</t>
+  </si>
+  <si>
+    <t>Size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,21 +904,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -925,15 +927,18 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>47.965179999999997</v>
@@ -942,15 +947,18 @@
         <v>-116.54603</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>48.239139999999999</v>
@@ -959,15 +967,18 @@
         <v>-116.293436</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>48.276752999999999</v>
@@ -976,15 +987,18 @@
         <v>-116.347077</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>48.282758999999999</v>
@@ -993,15 +1007,18 @@
         <v>-116.378738</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>48.271754000000001</v>
@@ -1010,15 +1027,18 @@
         <v>-116.541635</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>48.264321000000002</v>
@@ -1027,15 +1047,18 @@
         <v>-116.557951</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>48.237113999999998</v>
@@ -1044,15 +1067,18 @@
         <v>-116.58635200000001</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>48.180683999999999</v>
@@ -1061,15 +1087,18 @@
         <v>-116.71457100000001</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>48.159030000000001</v>
@@ -1078,15 +1107,18 @@
         <v>-116.77207300000001</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>48.176830000000002</v>
@@ -1095,15 +1127,18 @@
         <v>-116.904385</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>47.980715000000004</v>
@@ -1112,15 +1147,18 @@
         <v>-116.558432</v>
       </c>
       <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>18</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>13</v>
       </c>
       <c r="B13">
         <v>48.187477000000001</v>
@@ -1129,15 +1167,18 @@
         <v>-116.43742</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>48.139038999999997</v>
@@ -1146,15 +1187,18 @@
         <v>-116.228712</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>48.173349999999999</v>
@@ -1163,15 +1207,18 @@
         <v>-116.232091</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>16</v>
       </c>
       <c r="B16">
         <v>48.250380999999997</v>
@@ -1180,30 +1227,34 @@
         <v>-116.315547</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>